--- a/S3/Matriz_ISO25010_Plantilla.xlsx
+++ b/S3/Matriz_ISO25010_Plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pato Alarcon\Clases\Uisek\Silabos\Aseguramient ode la calidad de software\Sesion 3\Ejercicio vigente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATEO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5D7C0-AE22-4AE2-A6BF-438A4A9B51C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E63B66-457D-4100-A92A-2396F4BAED8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{108F042B-8F65-45F1-B599-69BB0F49F5D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{108F042B-8F65-45F1-B599-69BB0F49F5D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz_ISO25010_Plantilla" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -52,30 +52,9 @@
     <t>Comportamiento temporal</t>
   </si>
   <si>
-    <t>Tiempo de respuesta medido 3 veces (mediana)</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>&lt;=2 s en 3/3 mediciones</t>
-  </si>
-  <si>
-    <t>Prueba/Medición</t>
-  </si>
-  <si>
-    <t>No (historia indica &lt;=7 s)</t>
-  </si>
-  <si>
-    <t>Optimizar consultas y cache</t>
-  </si>
-  <si>
-    <t>El listado de médicos debe cargar en &lt;= 2 s bajo carga normal</t>
-  </si>
-  <si>
     <t>Característica ISO/IEC 25010</t>
   </si>
   <si>
@@ -91,14 +70,209 @@
     <t>Evidencia (URL/captura/test)</t>
   </si>
   <si>
-    <t>Caso narrado</t>
+    <t>MED-02</t>
+  </si>
+  <si>
+    <t>MED-03</t>
+  </si>
+  <si>
+    <t>MED-04</t>
+  </si>
+  <si>
+    <t>MED-05</t>
+  </si>
+  <si>
+    <t>MED-06</t>
+  </si>
+  <si>
+    <t>MED-07</t>
+  </si>
+  <si>
+    <t>MED-08</t>
+  </si>
+  <si>
+    <t>Inspección / Prueba</t>
+  </si>
+  <si>
+    <t>Parcial</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Confidencialidad</t>
+  </si>
+  <si>
+    <t>Usabilidad</t>
+  </si>
+  <si>
+    <t>Fiabilidad</t>
+  </si>
+  <si>
+    <t>Compatibilidad</t>
+  </si>
+  <si>
+    <t>Funcionalidad</t>
+  </si>
+  <si>
+    <t>Recuperabilidad</t>
+  </si>
+  <si>
+    <t>Interoperabilidad</t>
+  </si>
+  <si>
+    <t>Accesibilidad / Adaptabilidad</t>
+  </si>
+  <si>
+    <t>Operabilidad</t>
+  </si>
+  <si>
+    <t>Corrección funcional</t>
+  </si>
+  <si>
+    <t>Manejo de errores</t>
+  </si>
+  <si>
+    <t>El tiempo de carga de la lista de médicos debe ser ≤ 2 segundos.</t>
+  </si>
+  <si>
+    <t>El sistema debe conservar o recuperar la reserva si el navegador se actualiza.</t>
+  </si>
+  <si>
+    <t>El formulario debe mostrarse correctamente en pantallas de 7" a 13" sin ocultar botones.</t>
+  </si>
+  <si>
+    <t>Separar los botones Confirmar y Cancelar al menos 20 px y usar confirmación modal para cancelar.</t>
+  </si>
+  <si>
+    <t>El sistema no debe permitir reservas solapadas para el mismo paciente.</t>
+  </si>
+  <si>
+    <t>Medición del tiempo de respuesta en segundos con Chrome DevTools o Lighthouse.</t>
+  </si>
+  <si>
+    <t>Porcentaje de mensajes de error con explicación comprensible.</t>
+  </si>
+  <si>
+    <t>Tiempo de expiración de sesión y validación de acceso posterior.</t>
+  </si>
+  <si>
+    <t>Porcentaje de reservas recuperadas tras recarga.</t>
+  </si>
+  <si>
+    <t>Tasa de éxito de exportación a cada servicio.</t>
+  </si>
+  <si>
+    <t>Porcentaje de pantallas en las que el formulario se visualiza correctamente.</t>
+  </si>
+  <si>
+    <t>Medición de distancia entre botones (en píxeles).</t>
+  </si>
+  <si>
+    <t>Porcentaje de intentos de reservas solapadas bloqueados.</t>
+  </si>
+  <si>
+    <t>≤ 2 segundos</t>
+  </si>
+  <si>
+    <t>≥ 95%</t>
+  </si>
+  <si>
+    <t>≤ 5 minutos de inactividad</t>
+  </si>
+  <si>
+    <t>≥ 90%</t>
+  </si>
+  <si>
+    <t>≥ 95% de éxito en ambos servicios</t>
+  </si>
+  <si>
+    <t>≥ 20 px de separación</t>
+  </si>
+  <si>
+    <t>Captura de tiempos en consola o reporte de Lighthouse.</t>
+  </si>
+  <si>
+    <t>Capturas de pantalla del mensaje de error revisado.</t>
+  </si>
+  <si>
+    <t>Registro de pruebas de cierre automático de sesión.</t>
+  </si>
+  <si>
+    <t>Capturas de pruebas recargando la página durante una reserva.</t>
+  </si>
+  <si>
+    <t>Capturas de pruebas de exportación/importación en Outlook y Google.</t>
+  </si>
+  <si>
+    <t>Capturas o video de interfaz en tablets.</t>
+  </si>
+  <si>
+    <t>Captura o inspección del CSS de los botones.</t>
+  </si>
+  <si>
+    <t>Evidencia de prueba funcional (casos de prueba con duplicidad).</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Prueba / Inspección</t>
+  </si>
+  <si>
+    <t>Inspección</t>
+  </si>
+  <si>
+    <t>Prueba / Análisis</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>La lentitud afecta la experiencia del usuario.</t>
+  </si>
+  <si>
+    <t>El mensaje “Error 401” es técnico y confunde al usuario.</t>
+  </si>
+  <si>
+    <t>Riesgo de acceso no autorizado en equipos compartidos.</t>
+  </si>
+  <si>
+    <t>Se pierden datos si el usuario actualiza el navegador.</t>
+  </si>
+  <si>
+    <t>Falla en Outlook, funciona en Google Calendar.</t>
+  </si>
+  <si>
+    <t>En tablets el botón Confirmar queda fuera de vista.</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Botones demasiado cercanos, provocan errores por clic.</t>
+  </si>
+  <si>
+    <t>Permite turnos duplicados; se requiere validación en backend.</t>
+  </si>
+  <si>
+    <t>Los mensajes de error deben indicar el causante del problema.</t>
+  </si>
+  <si>
+    <t>La sesión debe cerrarse al cerrar pestaña o tras algun tiempo de inactividad.</t>
+  </si>
+  <si>
+    <t>La exportación de turnos a calendario debe funcionar con Google y Outlook o un calendario que gestione dichas citas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,10 +415,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -434,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -580,17 +754,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -636,7 +799,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -647,7 +810,10 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1025,49 +1191,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C646C19-4485-4E5F-825D-17D09CE9BEFB}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.5" customWidth="1"/>
+    <col min="5" max="5" width="48.625" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.5" customWidth="1"/>
+    <col min="8" max="8" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1085,45 +1251,313 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33" customHeight="1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.5">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.5">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>